--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2839666.51959981</v>
+        <v>2837174.570275973</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>191.1373540121889</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90750774234414</v>
+        <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>83.30175066562809</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607275</v>
+        <v>62.22601572607279</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
         <v>216.9882312337392</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +750,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>53.4093727189107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.83806240155588</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870452</v>
+        <v>53.80849853870454</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3651273148851</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.75546894845188</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.12579164114444</v>
+        <v>213.882753972476</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>324.1159635568318</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>240.9427366455264</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>74.52922194059501</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>29.36682762385458</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>88.70422844991353</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.7588163125935</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>263.9946303209722</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>130.9898714432076</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172148</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.0573374602128</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>112.668313093795</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117.4765410832877</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>910.9791923298937</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="C2" t="n">
-        <v>542.0166753894821</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="D2" t="n">
-        <v>542.0166753894821</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="E2" t="n">
-        <v>156.2284227912378</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="F2" t="n">
-        <v>149.2829220420344</v>
+        <v>955.9197385010532</v>
       </c>
       <c r="G2" t="n">
-        <v>135.2349344235049</v>
+        <v>537.8313468421197</v>
       </c>
       <c r="H2" t="n">
-        <v>135.2349344235049</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.4961545710332</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005009</v>
+        <v>435.2148351005007</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311637</v>
+        <v>833.2666318311635</v>
       </c>
       <c r="M2" t="n">
         <v>1292.782497537224</v>
@@ -4346,7 +4346,7 @@
         <v>2127.026478132811</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935765</v>
+        <v>2415.315960935764</v>
       </c>
       <c r="Q2" t="n">
         <v>2554.587596648575</v>
@@ -4355,25 +4355,25 @@
         <v>2491.733035309107</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.733035309107</v>
+        <v>2312.716599815397</v>
       </c>
       <c r="T2" t="n">
-        <v>2272.553003759876</v>
+        <v>2093.536568266166</v>
       </c>
       <c r="U2" t="n">
-        <v>2018.781251713398</v>
+        <v>1839.764816219688</v>
       </c>
       <c r="V2" t="n">
-        <v>1687.718364369827</v>
+        <v>1508.701928876117</v>
       </c>
       <c r="W2" t="n">
-        <v>1687.718364369827</v>
+        <v>1155.933273606003</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.718364369827</v>
+        <v>1155.933273606003</v>
       </c>
       <c r="Y2" t="n">
-        <v>1297.579032394015</v>
+        <v>1155.933273606003</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238777569</v>
+        <v>840.2866238777565</v>
       </c>
       <c r="C3" t="n">
-        <v>665.83359459663</v>
+        <v>665.8335945966295</v>
       </c>
       <c r="D3" t="n">
-        <v>516.8991849353787</v>
+        <v>516.8991849353782</v>
       </c>
       <c r="E3" t="n">
-        <v>357.6617299299232</v>
+        <v>357.6617299299227</v>
       </c>
       <c r="F3" t="n">
-        <v>211.1271719568082</v>
+        <v>211.1271719568077</v>
       </c>
       <c r="G3" t="n">
-        <v>73.15040082343199</v>
+        <v>157.1783106245747</v>
       </c>
       <c r="H3" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="I3" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="J3" t="n">
-        <v>51.0917519329715</v>
+        <v>120.1765123687508</v>
       </c>
       <c r="K3" t="n">
-        <v>295.7894542912747</v>
+        <v>364.8742147270539</v>
       </c>
       <c r="L3" t="n">
-        <v>686.2201089708947</v>
+        <v>598.1646481335557</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.813489198043</v>
+        <v>1105.758028360704</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.54836919602</v>
+        <v>1642.492908358681</v>
       </c>
       <c r="O3" t="n">
-        <v>2155.140246472892</v>
+        <v>2067.084785635553</v>
       </c>
       <c r="P3" t="n">
         <v>2390.854132153966</v>
@@ -4431,25 +4431,25 @@
         <v>2554.587596648575</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922611</v>
+        <v>2500.23557792261</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973172</v>
+        <v>2340.824460973171</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257393</v>
+        <v>2141.677234257392</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828256</v>
+        <v>1913.503224828255</v>
       </c>
       <c r="V3" t="n">
         <v>1678.351116596513</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868312</v>
+        <v>1424.113759868311</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662779</v>
+        <v>1216.262259662778</v>
       </c>
       <c r="Y3" t="n">
         <v>1008.501960897825</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.0605296718143</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="C4" t="n">
-        <v>368.0605296718143</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="D4" t="n">
-        <v>368.0605296718143</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1474360894211</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1474360894211</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="G4" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="H4" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="J4" t="n">
-        <v>51.0917519329715</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="K4" t="n">
         <v>101.030457077186</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703269</v>
+        <v>220.4612409703268</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486094</v>
+        <v>356.7733802486093</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493196</v>
+        <v>495.2789379493194</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455636</v>
+        <v>607.1949427455635</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071399</v>
+        <v>679.4377367071397</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071399</v>
+        <v>645.3413034258751</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071399</v>
+        <v>494.6819017364951</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071399</v>
+        <v>494.6819017364951</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071399</v>
+        <v>267.1349377637553</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071399</v>
+        <v>267.1349377637553</v>
       </c>
       <c r="V4" t="n">
-        <v>424.7532485012531</v>
+        <v>267.1349377637553</v>
       </c>
       <c r="W4" t="n">
-        <v>368.0605296718143</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="X4" t="n">
-        <v>368.0605296718143</v>
+        <v>51.09175193297149</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.0605296718143</v>
+        <v>51.09175193297149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1414.585257124761</v>
+        <v>1120.893046486888</v>
       </c>
       <c r="C5" t="n">
-        <v>1045.622740184349</v>
+        <v>1120.893046486888</v>
       </c>
       <c r="D5" t="n">
-        <v>687.3570415775987</v>
+        <v>1120.893046486888</v>
       </c>
       <c r="E5" t="n">
-        <v>301.5687889793545</v>
+        <v>793.5031843082696</v>
       </c>
       <c r="F5" t="n">
-        <v>294.623288230151</v>
+        <v>382.5172795186621</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,25 +4565,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>322.4498401563318</v>
+        <v>184.0586181407346</v>
       </c>
       <c r="L5" t="n">
-        <v>875.263098402531</v>
+        <v>736.8718763869338</v>
       </c>
       <c r="M5" t="n">
-        <v>1506.980909385843</v>
+        <v>923.5712892123414</v>
       </c>
       <c r="N5" t="n">
-        <v>2134.288577445689</v>
+        <v>1550.878957272188</v>
       </c>
       <c r="O5" t="n">
-        <v>2304.457602762649</v>
+        <v>2098.040162039265</v>
       </c>
       <c r="P5" t="n">
-        <v>2415.191928012176</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4601,16 +4601,16 @@
         <v>2191.324429164694</v>
       </c>
       <c r="V5" t="n">
-        <v>2191.324429164694</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>2191.324429164694</v>
+        <v>1507.492886551009</v>
       </c>
       <c r="X5" t="n">
-        <v>2191.324429164694</v>
+        <v>1507.492886551009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1801.185097188883</v>
+        <v>1507.492886551009</v>
       </c>
     </row>
     <row r="6">
@@ -4632,10 +4632,10 @@
         <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647824</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8151058240044</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
         <v>97.15164357768661</v>
@@ -4647,22 +4647,22 @@
         <v>169.9060384248988</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>248.1607499648565</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>752.5222898309751</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>932.0196261855799</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1566.198609964618</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.9636567378273</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="U7" t="n">
-        <v>762.0292916050275</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="V7" t="n">
-        <v>762.0292916050275</v>
+        <v>447.8431824706371</v>
       </c>
       <c r="W7" t="n">
-        <v>472.6121215680669</v>
+        <v>447.8431824706371</v>
       </c>
       <c r="X7" t="n">
-        <v>472.6121215680669</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.6121215680669</v>
+        <v>219.8536315726197</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>628.9126740680931</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>628.9126740680931</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>621.9671733188896</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>2430.026326942369</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2039.886994966557</v>
+        <v>1373.778212738965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5127,16 +5127,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,61 +5261,61 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556308</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5519,7 +5519,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,19 +5653,19 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5890,16 +5890,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,19 +6124,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,28 +6230,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,13 +6731,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7412,19 +7412,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,10 +7445,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.8388927589092</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310023</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164186</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>212.1128490679864</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>229.5178587032312</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>29.30750202500585</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.2962427943275</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>10.75443623899061</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933067</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605992</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.3555089013354</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187202</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.35543909864957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161961</v>
+        <v>548460.074616196</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299273</v>
+        <v>225009.9816299275</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>167098.1292843799</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243602113</v>
+        <v>498.761924360182</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198065</v>
+        <v>247452.3619198066</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719679</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719669</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719696</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946025</v>
+        <v>80023.31371946022</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198576.2901174293</v>
+        <v>-198576.290117429</v>
       </c>
       <c r="C6" t="n">
-        <v>168523.9070689017</v>
+        <v>168523.9070689015</v>
       </c>
       <c r="D6" t="n">
-        <v>159622.8146284182</v>
+        <v>159622.8146284185</v>
       </c>
       <c r="E6" t="n">
-        <v>49780.60483408229</v>
+        <v>49745.86690864674</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331921</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586278</v>
+        <v>557231.3085331927</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="J6" t="n">
-        <v>390167.9171742483</v>
+        <v>390133.1792488126</v>
       </c>
       <c r="K6" t="n">
-        <v>556767.2845342678</v>
+        <v>556732.5466088324</v>
       </c>
       <c r="L6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="M6" t="n">
-        <v>424658.7527297013</v>
+        <v>424624.0148042657</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586279</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.0464586279</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331927</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817386</v>
+        <v>347.0634059817384</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621438</v>
+        <v>638.6468991621437</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817386</v>
+        <v>347.0634059817384</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563265</v>
+        <v>246.4126943563267</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621438</v>
+        <v>638.6468991621437</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.93793293789512</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621435</v>
+        <v>638.6468991621437</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937895198</v>
+        <v>1.937932937895084</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621438</v>
+        <v>638.6468991621437</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894971</v>
+        <v>1.93793293789512</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>191.5964876512917</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>73.3845430892563</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387725</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>83.18763070313167</v>
       </c>
       <c r="H3" t="n">
-        <v>83.18763070313125</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031462</v>
+        <v>63.69429571031463</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
         <v>156.6627788836668</v>
@@ -27558,7 +27558,7 @@
         <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601736</v>
+        <v>49.11144063601738</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845186</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>230.3972066954466</v>
+        <v>72.64024436411501</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>57.81440651542994</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>171.9741673004104</v>
-      </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27673,16 +27673,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>70.53999045278887</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.53999045278886</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>78.5425926487143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>7.378827011234478</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>147.5530724519817</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>238.7412292352614</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193762</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.52731589188195</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790908</v>
+        <v>1.395229772790907</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059489</v>
+        <v>14.28889691059488</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552152</v>
+        <v>53.7895958155215</v>
       </c>
       <c r="J2" t="n">
         <v>118.4183829284124</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106516</v>
+        <v>177.4784592106515</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697014</v>
+        <v>220.1777223697013</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415717</v>
+        <v>244.9901398415716</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335139</v>
+        <v>248.9543364335137</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803243</v>
+        <v>235.0805203803241</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645487</v>
+        <v>200.6357853645486</v>
       </c>
       <c r="Q2" t="n">
         <v>150.6691191264742</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507694</v>
+        <v>87.64310221507689</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747285</v>
+        <v>31.79379844747283</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392202</v>
+        <v>6.107618330392199</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232726</v>
+        <v>0.1116183818232725</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.746513741168268</v>
+        <v>0.7465137411682675</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809326</v>
+        <v>7.209751131809322</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110045</v>
+        <v>25.70233714110044</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502483</v>
+        <v>70.5291776250248</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832988</v>
+        <v>120.5455982832987</v>
       </c>
       <c r="L3" t="n">
         <v>162.0884331426978</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600475</v>
+        <v>189.1495562600474</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821804</v>
+        <v>194.1557821821802</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857677</v>
+        <v>177.6146092857676</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323862</v>
+        <v>142.5513827323861</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351435</v>
+        <v>95.2918242235143</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393861</v>
+        <v>46.34933561393859</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389304</v>
+        <v>13.86616532389303</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200166</v>
+        <v>3.008974246200165</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949133</v>
+        <v>0.04911274612949131</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736269</v>
+        <v>0.6258520435736266</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772796</v>
+        <v>5.564393623772793</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946871</v>
+        <v>18.8210778194687</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065542</v>
+        <v>44.2477394806554</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519046</v>
+        <v>72.71262833519042</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730087</v>
+        <v>93.04713018730082</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218225</v>
+        <v>98.1051526121822</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886245</v>
+        <v>95.77243135886239</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711595</v>
+        <v>88.4613415771159</v>
       </c>
       <c r="P4" t="n">
-        <v>75.6939598882139</v>
+        <v>75.69395988821385</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324252</v>
+        <v>52.4065743032425</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468325</v>
+        <v>28.14058370468324</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027857</v>
+        <v>10.90689425027856</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269132</v>
+        <v>2.674095095269131</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492515</v>
+        <v>0.03413738419492512</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737999</v>
+        <v>106.4690935737998</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368358</v>
+        <v>281.5340207368357</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501646</v>
+        <v>402.0725219501645</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071314</v>
+        <v>464.1574401071313</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489071</v>
+        <v>456.888197248907</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213829</v>
+        <v>385.7824902213828</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807618</v>
+        <v>291.2014977807617</v>
       </c>
       <c r="Q2" t="n">
         <v>140.6784199119294</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>69.78258629876694</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215184</v>
+        <v>247.1693963215183</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662828</v>
+        <v>235.6469024308099</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880291</v>
+        <v>512.720586088029</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424006</v>
+        <v>542.1564444424005</v>
       </c>
       <c r="O3" t="n">
         <v>428.8806841180527</v>
       </c>
       <c r="P3" t="n">
-        <v>238.0948340212872</v>
+        <v>327.039743957993</v>
       </c>
       <c r="Q3" t="n">
         <v>165.3873378733419</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930761</v>
+        <v>50.44313650930756</v>
       </c>
       <c r="L4" t="n">
         <v>120.637155447617</v>
@@ -34866,13 +34866,13 @@
         <v>137.6890295740228</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380911</v>
+        <v>139.904603738091</v>
       </c>
       <c r="O4" t="n">
         <v>113.0464694911556</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310738</v>
+        <v>72.97251915310734</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>112.7046278579274</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.6337377656357</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>79.04516317167447</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35024,16 +35024,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108625</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893642</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.83623123219</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
